--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78164.5205776182</v>
+        <v>-80588.12712496013</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>234.4754966705318</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>144.4076980496711</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>179.5348732060118</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.8295457449018</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>98.63392404520782</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>144.1406215660492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>50.73003670622291</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>114.4065887760847</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>64.29086081055335</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222602</v>
+        <v>153.571588857353</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>88.98739807493862</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>115.013833414418</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>65.31126771337325</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>74.99990783515852</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986295</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>112.5284434523321</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5.890337106875814</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6285048151937</v>
       </c>
       <c r="V19" t="n">
-        <v>67.0077147539439</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>219.0085678128059</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>252.0847494365226</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>61.16269384155261</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>216.4795114578129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695608</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>107.5419779170878</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428256</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,10 +3715,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703275</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1408.745856356708</v>
+        <v>1548.76669086687</v>
       </c>
       <c r="C2" t="n">
-        <v>1171.901920325867</v>
+        <v>1548.76669086687</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.901920325867</v>
+        <v>1190.500992260119</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1136677276231</v>
+        <v>804.7127396618748</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>393.7268348722673</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>247.8604732059328</v>
       </c>
       <c r="H2" t="n">
         <v>66.51211643218342</v>
@@ -4328,19 +4328,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2911.719441927835</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2558.950786657721</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>2185.485028396641</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y2" t="n">
-        <v>1795.345696420829</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,10 +4410,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>729.201121645011</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>729.201121645011</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U4" t="n">
-        <v>440.0982547706545</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="V4" t="n">
-        <v>440.0982547706545</v>
+        <v>539.7404380942485</v>
       </c>
       <c r="W4" t="n">
-        <v>440.0982547706545</v>
+        <v>539.7404380942485</v>
       </c>
       <c r="X4" t="n">
-        <v>212.1087038726372</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>311.7508871962312</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2038.144201386631</v>
+        <v>2045.657199403895</v>
       </c>
       <c r="C5" t="n">
-        <v>1669.18168444622</v>
+        <v>1676.694682463484</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1318.428983856733</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>932.640731258489</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>521.6548264688815</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,7 +4562,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450753</v>
+        <v>2045.657199403895</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>576.372060369826</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C7" t="n">
-        <v>576.372060369826</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D7" t="n">
-        <v>426.2554209574903</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>278.3423273750972</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>131.4523798771868</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4747,28 +4747,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="V7" t="n">
-        <v>576.372060369826</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="W7" t="n">
-        <v>576.372060369826</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="X7" t="n">
-        <v>576.372060369826</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="Y7" t="n">
-        <v>576.372060369826</v>
+        <v>772.5608581015648</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1749.723851760223</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1380.761334819811</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>1022.495636213061</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490658</v>
+        <v>636.7073836148163</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V10" t="n">
-        <v>804.7114165106916</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="W10" t="n">
-        <v>515.2942464737309</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="X10" t="n">
-        <v>287.3046955757135</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218342</v>
+        <v>253.7240542955942</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,13 +5057,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.81666304797189</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>93.81666304797189</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>93.81666304797189</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687996</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131322</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629334</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936169</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484369</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377027</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
@@ -5224,25 +5224,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1374.584563821698</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="T13" t="n">
-        <v>1154.983098844639</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="U13" t="n">
-        <v>865.9078721888367</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="V13" t="n">
-        <v>611.2233839829498</v>
+        <v>1185.871053104066</v>
       </c>
       <c r="W13" t="n">
-        <v>321.8062139459892</v>
+        <v>1185.871053104066</v>
       </c>
       <c r="X13" t="n">
-        <v>93.81666304797189</v>
+        <v>1110.11357044229</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.81666304797189</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,22 +5288,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.195150674524</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098246</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819177</v>
+        <v>853.5941094450238</v>
       </c>
       <c r="D16" t="n">
-        <v>664.302781469582</v>
+        <v>703.4774700326881</v>
       </c>
       <c r="E16" t="n">
-        <v>516.3896878871889</v>
+        <v>555.564376450295</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>408.6744289523846</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>241.4783296672645</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>99.76649850946259</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924459</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718572</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681612</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783594</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640064</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1815.210065545664</v>
       </c>
       <c r="V19" t="n">
-        <v>1870.601831589881</v>
+        <v>1560.525577339777</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.18466155292</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832228</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>634.9279362553159</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.396372297858</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134625</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,25 +6710,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.11872044489</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121652</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121652</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121652</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121652</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192383</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.11872044489</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7309,16 +7309,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,40 +7330,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
         <v>1491.508541327549</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192606</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.195150674524</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121652</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121652</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121652</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121652</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,34 +7664,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>130.7973951004758</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>266.5140276037823</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.913874702020294e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>115.7150182882713</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.7097475538786</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>32.89260457059916</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185576</v>
+        <v>75.37549921168971</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012035</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>125.5559695740504</v>
       </c>
       <c r="V19" t="n">
-        <v>185.1299285698841</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>6.701087576231259</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>34.09972495272154</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>69.70496293143128</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>144.5956654067402</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219413</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194146</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,10 +25603,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194134</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1040035.487831571</v>
+        <v>1040035.487831572</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1104896.508706817</v>
+        <v>1104896.508706816</v>
       </c>
     </row>
     <row r="7">
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308158.6630612062</v>
+        <v>308158.6630612065</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457134</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
-        <v>313293.7425942656</v>
+        <v>313293.7425942654</v>
       </c>
       <c r="F2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="G2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="G2" t="n">
-        <v>322858.6398760026</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="J2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="L2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="M2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="M2" t="n">
-        <v>322858.6398760023</v>
-      </c>
       <c r="N2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760024</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64690.18151540476</v>
+        <v>64690.18151540513</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835454</v>
+        <v>761.3882086835451</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26442,10 +26442,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.583971892</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26454,7 +26454,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26506,7 +26506,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1193210.204743184</v>
+        <v>-1193336.817523713</v>
       </c>
       <c r="C6" t="n">
-        <v>126886.0232802673</v>
+        <v>126886.0232802675</v>
       </c>
       <c r="D6" t="n">
-        <v>126886.0232802678</v>
+        <v>126886.0232802675</v>
       </c>
       <c r="E6" t="n">
-        <v>-114002.6372456808</v>
+        <v>-114097.1557791271</v>
       </c>
       <c r="F6" t="n">
-        <v>205689.5260802033</v>
+        <v>205654.7881547675</v>
       </c>
       <c r="G6" t="n">
-        <v>205689.5260802037</v>
+        <v>205654.7881547676</v>
       </c>
       <c r="H6" t="n">
-        <v>205689.5260802034</v>
+        <v>205654.7881547676</v>
       </c>
       <c r="I6" t="n">
-        <v>205689.5260802035</v>
+        <v>205654.7881547675</v>
       </c>
       <c r="J6" t="n">
-        <v>-11841.67631707405</v>
+        <v>-11876.41424250985</v>
       </c>
       <c r="K6" t="n">
-        <v>205689.5260802034</v>
+        <v>205654.7881547675</v>
       </c>
       <c r="L6" t="n">
-        <v>205689.5260802032</v>
+        <v>205654.7881547675</v>
       </c>
       <c r="M6" t="n">
-        <v>120634.4981446914</v>
+        <v>120599.7602192558</v>
       </c>
       <c r="N6" t="n">
-        <v>205689.5260802032</v>
+        <v>205654.7881547677</v>
       </c>
       <c r="O6" t="n">
-        <v>205689.5260802033</v>
+        <v>205654.7881547677</v>
       </c>
       <c r="P6" t="n">
-        <v>205689.5260802034</v>
+        <v>205654.7881547677</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>115.0728911813086</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>121.9227127252331</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>153.5037192786202</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>74.44403178604554</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>303.9530049144601</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>296.5151368773687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>101.7349474484749</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27828,10 +27828,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>139.368951966159</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194513</v>
+        <v>253.3044568843584</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>90.84458210699867</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,13 +28068,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>137.12380990941</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>7.906326301189824e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-7.852336293650112e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-2.125807258481499e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>514.6953762540926</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32573,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>361.7519118779092</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>324.9782573297443</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023002</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649824</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>231.867312777577</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454456</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>160.6252099925838</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>372.0991318096482</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>23.94570355317105</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306621</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,16 +36677,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1556674334648</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>187.1368183553853</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
